--- a/main/resources/상품명가공 키워드지우기 리스트.xlsx
+++ b/main/resources/상품명가공 키워드지우기 리스트.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7077b6f5aef07e8/minkun/pyCharmWP/productNameModifier/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7077b6f5aef07e8/minkun/pyCharmWP/productNameModifier/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{1ED74D3F-4CE2-4821-98F5-05C4C8E30855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CE45FF6-425F-4851-ABF8-980CA4A33EAB}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="13_ncr:1_{1ED74D3F-4CE2-4821-98F5-05C4C8E30855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E94CA759-07B0-407C-B971-EBD8A643CFF0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="326">
   <si>
     <t>변경 후</t>
   </si>
@@ -994,6 +994,26 @@
   </si>
   <si>
     <t>스모키2</t>
+  </si>
+  <si>
+    <t>인기절정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도매</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벌킨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버킨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단일상품</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1369,10 +1389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B333"/>
+  <dimension ref="A1:B338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A306" workbookViewId="0">
-      <selection activeCell="A324" sqref="A324"/>
+    <sheetView tabSelected="1" topLeftCell="A333" workbookViewId="0">
+      <selection activeCell="A339" sqref="A339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3049,6 +3069,31 @@
     <row r="333" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>320</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>

--- a/main/resources/상품명가공 키워드지우기 리스트.xlsx
+++ b/main/resources/상품명가공 키워드지우기 리스트.xlsx
@@ -8,20 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7077b6f5aef07e8/minkun/pyCharmWP/productNameModifier/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="13_ncr:1_{1ED74D3F-4CE2-4821-98F5-05C4C8E30855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E94CA759-07B0-407C-B971-EBD8A643CFF0}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{1ED74D3F-4CE2-4821-98F5-05C4C8E30855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E54DF15-B5BF-460E-9F60-F92BDE350001}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="README" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="457">
   <si>
     <t>변경 후</t>
   </si>
@@ -1013,6 +1026,404 @@
   </si>
   <si>
     <t>단일상품</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포켓몬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포캣몬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>홀드쿼카</t>
+  </si>
+  <si>
+    <t>와이덕</t>
+  </si>
+  <si>
+    <t>DAMA</t>
+  </si>
+  <si>
+    <t>다사노</t>
+  </si>
+  <si>
+    <t>방문설치</t>
+  </si>
+  <si>
+    <t>DIY</t>
+  </si>
+  <si>
+    <t>토이웍스</t>
+  </si>
+  <si>
+    <t>로에보</t>
+  </si>
+  <si>
+    <t>다담아</t>
+  </si>
+  <si>
+    <t>리빙듀오</t>
+  </si>
+  <si>
+    <t>산리오</t>
+  </si>
+  <si>
+    <t>초이락</t>
+  </si>
+  <si>
+    <t>펫스타일</t>
+  </si>
+  <si>
+    <t>독니스</t>
+  </si>
+  <si>
+    <t>헬로도기</t>
+  </si>
+  <si>
+    <t>패리스독</t>
+  </si>
+  <si>
+    <t>SHUANG XIONG</t>
+  </si>
+  <si>
+    <t>도로시팬시</t>
+  </si>
+  <si>
+    <t>펫원</t>
+  </si>
+  <si>
+    <t>페로가토</t>
+  </si>
+  <si>
+    <t>아모스</t>
+  </si>
+  <si>
+    <t>비스토어</t>
+  </si>
+  <si>
+    <t>일신플라택</t>
+  </si>
+  <si>
+    <t>한아름리빙</t>
+  </si>
+  <si>
+    <t>다카라토미</t>
+  </si>
+  <si>
+    <t>대로무역</t>
+  </si>
+  <si>
+    <t>케이피아이</t>
+  </si>
+  <si>
+    <t>쏘아베</t>
+  </si>
+  <si>
+    <t>켓웨어</t>
+  </si>
+  <si>
+    <t>캣웨어</t>
+  </si>
+  <si>
+    <t>뉴트리오</t>
+  </si>
+  <si>
+    <t>써니사</t>
+  </si>
+  <si>
+    <t>포포</t>
+  </si>
+  <si>
+    <t>아띠</t>
+  </si>
+  <si>
+    <t>페스테이지</t>
+  </si>
+  <si>
+    <t>지올</t>
+  </si>
+  <si>
+    <t>엠펫</t>
+  </si>
+  <si>
+    <t>파이오니아펫</t>
+  </si>
+  <si>
+    <t>브리더</t>
+  </si>
+  <si>
+    <t>웰본</t>
+  </si>
+  <si>
+    <t>플로엠</t>
+  </si>
+  <si>
+    <t>김수미 IH</t>
+  </si>
+  <si>
+    <t>폴프랭크</t>
+  </si>
+  <si>
+    <t>비가</t>
+  </si>
+  <si>
+    <t>VIGA</t>
+  </si>
+  <si>
+    <t>준캡</t>
+  </si>
+  <si>
+    <t>원펀</t>
+  </si>
+  <si>
+    <t>케이스키즈</t>
+  </si>
+  <si>
+    <t>아트픽노멀다이어리</t>
+  </si>
+  <si>
+    <t>아트스케치</t>
+  </si>
+  <si>
+    <t>문구존</t>
+  </si>
+  <si>
+    <t>홈앤</t>
+  </si>
+  <si>
+    <t>캠핑러브</t>
+  </si>
+  <si>
+    <t>영달철물</t>
+  </si>
+  <si>
+    <t>더홈</t>
+  </si>
+  <si>
+    <t>위아리빙</t>
+  </si>
+  <si>
+    <t>어바니티</t>
+  </si>
+  <si>
+    <t>깔끔홈</t>
+  </si>
+  <si>
+    <t>디어온</t>
+  </si>
+  <si>
+    <t>굿그립</t>
+  </si>
+  <si>
+    <t>셀프철물</t>
+  </si>
+  <si>
+    <t>롯데</t>
+  </si>
+  <si>
+    <t>부자야</t>
+  </si>
+  <si>
+    <t>도톰튼튼</t>
+  </si>
+  <si>
+    <t>레트로 골드</t>
+  </si>
+  <si>
+    <t>레트로골드</t>
+  </si>
+  <si>
+    <t>인파라</t>
+  </si>
+  <si>
+    <t>넉넉챙</t>
+  </si>
+  <si>
+    <t>리빙스</t>
+  </si>
+  <si>
+    <t>더블월</t>
+  </si>
+  <si>
+    <t>모던스포츠</t>
+  </si>
+  <si>
+    <t>델리티</t>
+  </si>
+  <si>
+    <t>모던욕실</t>
+  </si>
+  <si>
+    <t>밝은집</t>
+  </si>
+  <si>
+    <t>뷰티나</t>
+  </si>
+  <si>
+    <t>따스이</t>
+  </si>
+  <si>
+    <t>뷰티온</t>
+  </si>
+  <si>
+    <t>뷰티미</t>
+  </si>
+  <si>
+    <t>반짝미</t>
+  </si>
+  <si>
+    <t>데코월</t>
+  </si>
+  <si>
+    <t>마크온</t>
+  </si>
+  <si>
+    <t>스윗홈</t>
+  </si>
+  <si>
+    <t>도톰원형</t>
+  </si>
+  <si>
+    <t>모던우먼</t>
+  </si>
+  <si>
+    <t>모던코디</t>
+  </si>
+  <si>
+    <t>감성키친</t>
+  </si>
+  <si>
+    <t>깔끔욕실</t>
+  </si>
+  <si>
+    <t>따스온</t>
+  </si>
+  <si>
+    <t>이지착</t>
+  </si>
+  <si>
+    <t>아이텍</t>
+  </si>
+  <si>
+    <t>대명</t>
+  </si>
+  <si>
+    <t>디고</t>
+  </si>
+  <si>
+    <t>케이티씨</t>
+  </si>
+  <si>
+    <t>훼미리</t>
+  </si>
+  <si>
+    <t>케이티무역</t>
+  </si>
+  <si>
+    <t>아트웨어</t>
+  </si>
+  <si>
+    <t>온더바디</t>
+  </si>
+  <si>
+    <t>펫팡팡</t>
+  </si>
+  <si>
+    <t>크레욜라</t>
+  </si>
+  <si>
+    <t>에듀플레이</t>
+  </si>
+  <si>
+    <t>키즈셀프피</t>
+  </si>
+  <si>
+    <t>쿠쿠토이즈</t>
+  </si>
+  <si>
+    <t>파포</t>
+  </si>
+  <si>
+    <t>페이퍼락</t>
+  </si>
+  <si>
+    <t>할릴릿</t>
+  </si>
+  <si>
+    <t>MIDEER</t>
+  </si>
+  <si>
+    <t>원다이어리케이스</t>
+  </si>
+  <si>
+    <t>레디큐</t>
+  </si>
+  <si>
+    <t>코멕스</t>
+  </si>
+  <si>
+    <t>암앤해머</t>
+  </si>
+  <si>
+    <t>감성온</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>감성</t>
+  </si>
+  <si>
+    <t>정규표현식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>^SUZN</t>
+  </si>
+  <si>
+    <t>^PEVA</t>
+  </si>
+  <si>
+    <t>^스위트</t>
+  </si>
+  <si>
+    <t>^스윗</t>
+  </si>
+  <si>
+    <t>^공간업</t>
+  </si>
+  <si>
+    <t>^S2</t>
+  </si>
+  <si>
+    <t>^SDEX</t>
+  </si>
+  <si>
+    <t>^SIMENS</t>
+  </si>
+  <si>
+    <t>^KW</t>
+  </si>
+  <si>
+    <t>^한양</t>
+  </si>
+  <si>
+    <t>^태승</t>
+  </si>
+  <si>
+    <t>^동광</t>
+  </si>
+  <si>
+    <t>^려</t>
+  </si>
+  <si>
+    <t>^영산</t>
+  </si>
+  <si>
+    <t>^JY</t>
+  </si>
+  <si>
+    <t>정규표현식 변경 후</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1020,7 +1431,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1042,6 +1453,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1051,12 +1471,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1066,11 +1501,22 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1078,11 +1524,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1389,98 +1839,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B338"/>
+  <dimension ref="A1:D452"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A333" workbookViewId="0">
-      <selection activeCell="A339" sqref="A339"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
@@ -3094,6 +3597,579 @@
     <row r="338" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>325</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>438</v>
+      </c>
+      <c r="B422" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>437</v>
       </c>
     </row>
   </sheetData>

--- a/main/resources/상품명가공 키워드지우기 리스트.xlsx
+++ b/main/resources/상품명가공 키워드지우기 리스트.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7077b6f5aef07e8/minkun/pyCharmWP/productNameModifier/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{1ED74D3F-4CE2-4821-98F5-05C4C8E30855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E54DF15-B5BF-460E-9F60-F92BDE350001}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="13_ncr:1_{1ED74D3F-4CE2-4821-98F5-05C4C8E30855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0984802A-66D9-41A2-BC6B-81B54940D221}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24855" yWindow="2775" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="440">
   <si>
     <t>변경 후</t>
   </si>
@@ -1372,59 +1372,6 @@
   </si>
   <si>
     <t>감성</t>
-  </si>
-  <si>
-    <t>정규표현식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>^SUZN</t>
-  </si>
-  <si>
-    <t>^PEVA</t>
-  </si>
-  <si>
-    <t>^스위트</t>
-  </si>
-  <si>
-    <t>^스윗</t>
-  </si>
-  <si>
-    <t>^공간업</t>
-  </si>
-  <si>
-    <t>^S2</t>
-  </si>
-  <si>
-    <t>^SDEX</t>
-  </si>
-  <si>
-    <t>^SIMENS</t>
-  </si>
-  <si>
-    <t>^KW</t>
-  </si>
-  <si>
-    <t>^한양</t>
-  </si>
-  <si>
-    <t>^태승</t>
-  </si>
-  <si>
-    <t>^동광</t>
-  </si>
-  <si>
-    <t>^려</t>
-  </si>
-  <si>
-    <t>^영산</t>
-  </si>
-  <si>
-    <t>^JY</t>
-  </si>
-  <si>
-    <t>정규표현식 변경 후</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1839,10 +1786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D452"/>
+  <dimension ref="A1:B452"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C1" sqref="C1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1852,138 +1799,87 @@
     <col min="4" max="4" width="18.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
